--- a/sample.xlsx
+++ b/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU51"/>
+  <dimension ref="A1:BE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>rotten tomatoes critics</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>script type</t>
+          <t>metacritic critics</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,132 +456,132 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>rotten tomatoes audience</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>metacritic audience</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rotten tomatoes vs metacritic deviance</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>average audience</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>audience vs critics deviance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>opening weekend</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>opening weekend ($million)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>domestic gross</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>domestic gross ($million)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross ($million)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>foreign gross</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>worldwide gross</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>worldwide gross ($million)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>of gross earned abroad</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>budget recovered opening weekend</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>adaptation</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>based on a true story</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>remake</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sequel</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>horror</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sci-fi</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>suspense</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>action</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -591,75 +591,125 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>mystery</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>suspense</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>comedy</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>animation</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>family</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>_april</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>_august</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>_december</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>_february</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>_january</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>_july</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>_june</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>_march</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>_may</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>_november</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>_october</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>_september</t>
         </is>
@@ -667,75 +717,73 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.76923076923077</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>13582231</v>
+        <v>58.92307692307692</v>
       </c>
       <c r="H2" t="n">
-        <v>68566296</v>
+        <v>14.30769230769231</v>
       </c>
       <c r="I2" t="n">
-        <v>114228120.5714286</v>
+        <v>66.30769230769231</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>-12.30769230769231</v>
       </c>
       <c r="K2" t="n">
-        <v>6.856599999999999</v>
+        <v>21000000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3582</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>7.6</v>
+        <v>3640355</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>62525155</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>66165510</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.1507</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -759,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -798,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -807,80 +855,108 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.71428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>34952180</v>
+        <v>55.875</v>
       </c>
       <c r="H3" t="n">
-        <v>115620025</v>
+        <v>17.125</v>
       </c>
       <c r="I3" t="n">
-        <v>234951977</v>
+        <v>84</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>-44</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6743</v>
+        <v>1399373</v>
       </c>
       <c r="L3" t="n">
-        <v>0.466</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>7.6</v>
+        <v>3973263</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>115.6875</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>115674827.125</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>221767710.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>221.7625</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.4687875</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>63.61428571428571</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.7729666666666667</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -889,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -901,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -934,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -946,86 +1022,114 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="G4" t="n">
-        <v>13743111</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>31713110</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>1819483</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>-44</v>
       </c>
       <c r="K4" t="n">
-        <v>1.7649</v>
+        <v>8901419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7232999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M4" t="n">
-        <v>7.6</v>
+        <v>21360215</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>223.65</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>223648651.4166667</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>21360215</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>51.29999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.4855</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1040,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1055,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1070,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1091,86 +1195,114 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>based on a true story</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G5" t="n">
-        <v>7768371</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
-        <v>29796477</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2919717</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8286741</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12959213</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21245954</v>
+      </c>
+      <c r="R5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T5" t="n">
         <v>60</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.583269230769232</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8302538461538462</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.3541</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.0487</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1182,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1197,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1215,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1224,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -1242,80 +1374,108 @@
         <v>0</v>
       </c>
       <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>remake</t>
-        </is>
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G6" t="n">
-        <v>4003993</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>9561064</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>17804403</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>9.773400000000001</v>
+        <v>14711101</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>14.7</v>
       </c>
       <c r="M6" t="n">
-        <v>7.6</v>
+        <v>50316123</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40928790</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>91244913</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.4486</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>7.6037</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.2259</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1342,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1360,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1375,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1387,80 +1547,108 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
-        <v>26608020</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>68549695</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>62907452</v>
+        <v>77</v>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>-21</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1299</v>
+        <v>16627491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6335000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="M7" t="n">
-        <v>7.6</v>
+        <v>48947356</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>48.9</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40928790</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>78418101</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.4486</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.2253</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.2598</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1472,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1505,16 +1693,16 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1532,80 +1720,108 @@
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F8" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>75812205</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>211630916</v>
+        <v>-17</v>
       </c>
       <c r="I8" t="n">
-        <v>333301651</v>
+        <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7945</v>
+        <v>2540240</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3888</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>7.6</v>
+        <v>6782066</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8961988</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15744054</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>15.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>57.3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>73.18333333333334</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.62115</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1614,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1623,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1650,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1659,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1677,80 +1893,108 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G9" t="n">
-        <v>56237634</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>187164171</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>217884434</v>
+        <v>81</v>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3146</v>
+        <v>31625971</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3214</v>
+        <v>31.6</v>
       </c>
       <c r="M9" t="n">
-        <v>7.6</v>
+        <v>100916094</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>100.9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>30.8625</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30813958.125</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468043852</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.753675</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.0196</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1759,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1771,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1783,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -1807,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -1816,86 +2060,114 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>based on a true story</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>14504315</v>
+        <v>61</v>
       </c>
       <c r="H10" t="n">
-        <v>66220028</v>
+        <v>-29</v>
       </c>
       <c r="I10" t="n">
-        <v>9724832</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>1.5822</v>
+        <v>1763070</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3022</v>
+        <v>1.8</v>
       </c>
       <c r="M10" t="n">
-        <v>7.6</v>
+        <v>3005408</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>208.3178571428572</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>208313889.7440476</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3005408</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>51.72857142857141</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.6011</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1904,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1925,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1940,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1961,86 +2233,114 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
       </c>
       <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>remake</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G11" t="n">
-        <v>14711101</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>50316123</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>40928790</v>
+        <v>55</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>-24</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6037</v>
+        <v>30035838</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2259</v>
+        <v>30</v>
       </c>
       <c r="M11" t="n">
-        <v>7.6</v>
+        <v>80001807</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>173.9</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>173888894</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>253890701</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>253.9</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.3081</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.2727</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2055,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2067,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2097,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2112,83 +2412,111 @@
         <v>0</v>
       </c>
       <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>57</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F12" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G12" t="n">
-        <v>11001961</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>40442052</v>
+        <v>-14</v>
       </c>
       <c r="I12" t="n">
-        <v>186435244</v>
+        <v>53</v>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>5.671900000000001</v>
+        <v>26608020</v>
       </c>
       <c r="L12" t="n">
-        <v>0.275</v>
+        <v>26.6</v>
       </c>
       <c r="M12" t="n">
-        <v>7.6</v>
+        <v>68549695</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>62907452</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>131457147</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>1315</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.4785</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3.1299</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.6335000000000001</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2236,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -2258,82 +2586,110 @@
       </c>
       <c r="AU12" t="n">
         <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
-        <v>338999</v>
+        <v>66</v>
       </c>
       <c r="H13" t="n">
-        <v>4153783</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
-        <v>25419</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>54.7</v>
+        <v>-27</v>
       </c>
       <c r="K13" t="n">
-        <v>5.583269230769232</v>
+        <v>251569</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8302538461538462</v>
+        <v>0.3</v>
       </c>
       <c r="M13" t="n">
-        <v>7.6</v>
+        <v>3689637</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>33.59531250000001</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>33545454.390625</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5599772</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.185384375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>59.85714285714285</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.72075</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.2054</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -2342,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2372,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -2384,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2402,83 +2758,111 @@
         <v>0</v>
       </c>
       <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="D14" t="n">
+        <v>84</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G14" t="n">
-        <v>53807379</v>
+        <v>69</v>
       </c>
       <c r="H14" t="n">
-        <v>117450119</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>248100000</v>
+        <v>82</v>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>16.6159</v>
+        <v>11504710</v>
       </c>
       <c r="L14" t="n">
-        <v>2.4458</v>
+        <v>11.5</v>
       </c>
       <c r="M14" t="n">
-        <v>7.6</v>
+        <v>29975167</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>29.9197265625</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29875204.68945312</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>43646976</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>43.6</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.023744921875</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.7936</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.2092</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2499,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2526,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -2547,89 +2931,117 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
         <v>39</v>
       </c>
-      <c r="B15" t="n">
-        <v>40</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>based on a true story</t>
-        </is>
-      </c>
       <c r="E15" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G15" t="n">
-        <v>10845330</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>32316575</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
-        <v>9325905</v>
+        <v>46</v>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>-21</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7762</v>
+        <v>3106730</v>
       </c>
       <c r="L15" t="n">
-        <v>0.723</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>7.6</v>
+        <v>6546159</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>906254</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7452413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.4905</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2662,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2692,80 +3104,108 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>65</v>
+      </c>
+      <c r="G16" t="n">
+        <v>37</v>
+      </c>
+      <c r="H16" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" t="n">
+        <v>51</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5319280</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17000612</v>
+      </c>
+      <c r="N16" t="n">
         <v>17</v>
       </c>
-      <c r="C16" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>58</v>
-      </c>
-      <c r="F16" t="n">
-        <v>62</v>
-      </c>
-      <c r="G16" t="n">
-        <v>25010928</v>
-      </c>
-      <c r="H16" t="n">
-        <v>115234093</v>
-      </c>
-      <c r="I16" t="n">
-        <v>235984098</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.024400000000001</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.5002</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>25.7846923828125</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>25746173.77563477</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>41909091</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.966900537109375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>1.6764</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.2128</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2774,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2783,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2813,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -2837,80 +3277,108 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F17" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>204793</v>
+        <v>74</v>
       </c>
       <c r="H17" t="n">
-        <v>20437883</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>315805</v>
+        <v>77</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3474</v>
+        <v>75812205</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0323</v>
+        <v>75.8</v>
       </c>
       <c r="M17" t="n">
-        <v>7.6</v>
+        <v>211630916</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>333301651</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>544932567</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5449</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.6115999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>2.7945</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.3888</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2925,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2934,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2952,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -2982,83 +3450,111 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="D18" t="n">
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F18" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>246305</v>
+        <v>65</v>
       </c>
       <c r="H18" t="n">
-        <v>15500045</v>
+        <v>-7</v>
       </c>
       <c r="I18" t="n">
-        <v>6887012</v>
+        <v>62</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="K18" t="n">
-        <v>5.596799999999999</v>
+        <v>25010928</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05</v>
+        <v>25</v>
       </c>
       <c r="M18" t="n">
-        <v>6.5</v>
+        <v>115234093</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>235984098</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>351218191</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.6718999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>7.024400000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.5002</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>6.309333333333332</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -3085,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -3127,83 +3623,111 @@
         <v>0</v>
       </c>
       <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>86</v>
+      </c>
+      <c r="D19" t="n">
+        <v>63</v>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>66.30769230769231</v>
+        <v>97</v>
       </c>
       <c r="G19" t="n">
-        <v>21000000</v>
+        <v>62</v>
       </c>
       <c r="H19" t="n">
-        <v>3640355</v>
+        <v>35</v>
       </c>
       <c r="I19" t="n">
-        <v>62525155</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1507</v>
+        <v>16000495</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
-        <v>6.5</v>
+        <v>44141550</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>48559860</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>92701410</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0.5238</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.3175</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -3245,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -3269,86 +3793,114 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="D20" t="n">
+        <v>53</v>
       </c>
       <c r="E20" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54</v>
+      </c>
+      <c r="H20" t="n">
         <v>44</v>
       </c>
-      <c r="F20" t="n">
-        <v>86</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8137584</v>
-      </c>
-      <c r="H20" t="n">
-        <v>26402818</v>
-      </c>
       <c r="I20" t="n">
-        <v>7371145</v>
+        <v>76</v>
       </c>
       <c r="J20" t="n">
-        <v>73.18333333333334</v>
+        <v>-12</v>
       </c>
       <c r="K20" t="n">
-        <v>3.619091666666667</v>
+        <v>5861836</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6211500000000001</v>
+        <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>7.5</v>
+        <v>26514814</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>26.5</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>28.89527893066406</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>28851163.74758911</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>114475227.8571429</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>114.4571428571429</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.587763104248047</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.72075</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.2345</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -3357,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3387,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -3396,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -3405,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -3417,80 +3969,108 @@
         <v>0</v>
       </c>
       <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="D21" t="n">
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G21" t="n">
-        <v>47776293</v>
+        <v>68</v>
       </c>
       <c r="H21" t="n">
-        <v>110500138</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>275400000</v>
+        <v>68</v>
       </c>
       <c r="J21" t="n">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>2.27</v>
+        <v>56237634</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2812</v>
+        <v>56.2</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>187164171</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>217884434</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>405048605</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>4050</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0.5379</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.3146</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.3214</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>6.383288888888887</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3505,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -3562,80 +4142,108 @@
         <v>0</v>
       </c>
       <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>remake</t>
-        </is>
+        <v>85</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F22" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>8351109</v>
+        <v>73</v>
       </c>
       <c r="H22" t="n">
-        <v>17199425</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>38400000</v>
+        <v>77</v>
       </c>
       <c r="J22" t="n">
-        <v>48</v>
+        <v>-5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.1583</v>
+        <v>805000</v>
       </c>
       <c r="L22" t="n">
-        <v>0.175</v>
+        <v>0.8</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>10640105</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4739790</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>15379895</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0.3082</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.5196</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3650,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -3680,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -3701,86 +4309,114 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
       </c>
       <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>26347631</v>
+        <v>42</v>
       </c>
       <c r="H23" t="n">
-        <v>54733739</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>67400000</v>
+        <v>47</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="K23" t="n">
-        <v>13.5704</v>
+        <v>4003993</v>
       </c>
       <c r="L23" t="n">
-        <v>2.9222</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>5.2</v>
+        <v>9561064</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>17804403</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>27365467</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.6506000000000001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.773400000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.335508148148147</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3792,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3804,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3819,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -3831,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -3852,80 +4488,108 @@
         <v>0</v>
       </c>
       <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="D24" t="n">
+        <v>65</v>
       </c>
       <c r="E24" t="n">
+        <v>73</v>
+      </c>
+      <c r="F24" t="n">
         <v>86</v>
       </c>
-      <c r="F24" t="n">
-        <v>84</v>
-      </c>
       <c r="G24" t="n">
-        <v>357115007</v>
+        <v>64</v>
       </c>
       <c r="H24" t="n">
-        <v>858373000</v>
+        <v>22</v>
       </c>
       <c r="I24" t="n">
-        <v>1939427564</v>
+        <v>75</v>
       </c>
       <c r="J24" t="n">
-        <v>356</v>
+        <v>-2</v>
       </c>
       <c r="K24" t="n">
-        <v>7.859</v>
+        <v>1755325</v>
       </c>
       <c r="L24" t="n">
-        <v>1.0031</v>
+        <v>1.8</v>
       </c>
       <c r="M24" t="n">
-        <v>8.4</v>
+        <v>4330720</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>102933</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>4433653</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0.0232</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>63.61428571428571</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.7729666666666667</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3937,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3955,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -3997,80 +4661,108 @@
         <v>0</v>
       </c>
       <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>83</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" t="n">
+        <v>64</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16</v>
+      </c>
+      <c r="I25" t="n">
+        <v>72</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3600355</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9030855</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9042578</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>18073433</v>
+      </c>
+      <c r="R25" t="n">
+        <v>18</v>
+      </c>
+      <c r="S25" t="n">
         <v>50</v>
       </c>
-      <c r="C25" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>81</v>
-      </c>
-      <c r="F25" t="n">
-        <v>86</v>
-      </c>
-      <c r="G25" t="n">
-        <v>53505326</v>
-      </c>
-      <c r="H25" t="n">
-        <v>56830326</v>
-      </c>
-      <c r="I25" t="n">
-        <v>102300000</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.5913</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3.0122</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -4079,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -4100,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -4109,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -4142,80 +4834,108 @@
         <v>0</v>
       </c>
       <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60.71428571428572</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>63.625</v>
       </c>
       <c r="F26" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>30035838</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>80001807</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>173888894</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>-5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3081</v>
+        <v>21115423.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2727</v>
+        <v>21.1125</v>
       </c>
       <c r="M26" t="n">
-        <v>5.6</v>
+        <v>2033057</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3475600</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>5508657</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.6309</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>1.1017</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.7729666666666667</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4224,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -4245,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -4254,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
@@ -4272,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -4287,80 +5007,108 @@
         <v>0</v>
       </c>
       <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30</v>
       </c>
       <c r="E27" t="n">
+        <v>34</v>
+      </c>
+      <c r="F27" t="n">
+        <v>81</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>55</v>
+      </c>
+      <c r="I27" t="n">
         <v>54</v>
       </c>
-      <c r="F27" t="n">
-        <v>47</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2540240</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6782066</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8961988</v>
-      </c>
       <c r="J27" t="n">
-        <v>73.18333333333334</v>
+        <v>-20</v>
       </c>
       <c r="K27" t="n">
-        <v>3.619091666666667</v>
+        <v>700160</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6211500000000001</v>
+        <v>0.7</v>
       </c>
       <c r="M27" t="n">
-        <v>5.5</v>
+        <v>2241980</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>1033099</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>3275079</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.5647</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.2251666666666667</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4369,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -4384,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -4405,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -4417,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -4432,80 +5180,108 @@
         <v>0</v>
       </c>
       <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F28" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="G28" t="n">
-        <v>1763070</v>
+        <v>78</v>
       </c>
       <c r="H28" t="n">
-        <v>3005408</v>
+        <v>18</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6011</v>
+        <v>204793</v>
       </c>
       <c r="L28" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
-        <v>5.5</v>
+        <v>20437883</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>315805</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>20753688</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>3.3474</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4514,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -4535,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4562,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -4577,80 +5353,108 @@
         <v>0</v>
       </c>
       <c r="AU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="D29" t="n">
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
-        <v>8901419</v>
+        <v>59</v>
       </c>
       <c r="H29" t="n">
-        <v>21360215</v>
+        <v>18</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J29" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4855</v>
+        <v>246305</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2023</v>
+        <v>0.2</v>
       </c>
       <c r="M29" t="n">
-        <v>6.4</v>
+        <v>15500045</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6887012</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>22387057</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>22.4</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5.596799999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4659,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4680,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -4695,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -4707,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -4722,80 +5526,108 @@
         <v>0</v>
       </c>
       <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G30" t="n">
-        <v>3106730</v>
+        <v>54</v>
       </c>
       <c r="H30" t="n">
-        <v>6546159</v>
+        <v>35</v>
       </c>
       <c r="I30" t="n">
-        <v>906254</v>
+        <v>72</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>-17</v>
       </c>
       <c r="K30" t="n">
-        <v>1.4905</v>
+        <v>10101066</v>
       </c>
       <c r="L30" t="n">
-        <v>0.62</v>
+        <v>10.1</v>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>40501717</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>26.43218879699707</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>26387576.71603775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>150976764</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.595758492279053</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>3.355</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>0.2245</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4804,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4825,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -4840,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -4849,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -4861,86 +5693,114 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48</v>
       </c>
       <c r="E31" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>2250430</v>
+        <v>52</v>
       </c>
       <c r="H31" t="n">
-        <v>12668325</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>3600023</v>
+        <v>57</v>
       </c>
       <c r="J31" t="n">
-        <v>38</v>
+        <v>-17</v>
       </c>
       <c r="K31" t="n">
-        <v>1.5647</v>
+        <v>6444896</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0605</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>6.8</v>
+        <v>14947969</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>14.9</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>14452857</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29400826</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.4916</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.3675</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.0806</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4949,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4979,19 +5839,19 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -5012,86 +5872,114 @@
         <v>0</v>
       </c>
       <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="D32" t="n">
+        <v>61</v>
       </c>
       <c r="E32" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G32" t="n">
-        <v>3600355</v>
+        <v>62</v>
       </c>
       <c r="H32" t="n">
-        <v>9030855</v>
+        <v>-8</v>
       </c>
       <c r="I32" t="n">
-        <v>9042578</v>
+        <v>58</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.0122</v>
+        <v>7768371</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="M32" t="n">
-        <v>6.3</v>
+        <v>29796477</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>124.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>112069769.6666667</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>29796477</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.8302538461538462</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.351208691358024</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -5115,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -5136,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32" t="n">
         <v>0</v>
@@ -5151,92 +6039,120 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
       </c>
       <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="D33" t="n">
+        <v>60</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F33" t="n">
+        <v>59</v>
+      </c>
+      <c r="G33" t="n">
+        <v>49</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
         <v>54</v>
       </c>
-      <c r="G33" t="n">
-        <v>700160</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2241980</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1033099</v>
-      </c>
       <c r="J33" t="n">
-        <v>34.66666666666666</v>
+        <v>12</v>
       </c>
       <c r="K33" t="n">
-        <v>1.5647</v>
+        <v>4651571</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2251666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="M33" t="n">
-        <v>6.1</v>
+        <v>8237403</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>28.87371239662171</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>28825147.30554247</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>12732039</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.945228303813934</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.2546</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -5260,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -5275,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
@@ -5302,80 +6218,108 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F34" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G34" t="n">
-        <v>918112</v>
+        <v>68</v>
       </c>
       <c r="H34" t="n">
-        <v>6306897</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>724392</v>
+        <v>71</v>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1172</v>
+        <v>34952180</v>
       </c>
       <c r="L34" t="n">
-        <v>0.015</v>
+        <v>35</v>
       </c>
       <c r="M34" t="n">
-        <v>5.4</v>
+        <v>115620025</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>234951977</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>350572002</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3506</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.6701999999999999</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>4.6743</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>6.367955937448558</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -5390,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -5405,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -5420,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -5447,80 +6391,108 @@
         <v>0</v>
       </c>
       <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39</v>
+      </c>
+      <c r="E35" t="n">
+        <v>32</v>
+      </c>
+      <c r="F35" t="n">
+        <v>38</v>
+      </c>
+      <c r="G35" t="n">
+        <v>31</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13743111</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>31713110</v>
+      </c>
+      <c r="N35" t="n">
+        <v>32</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1819483</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33532593</v>
+      </c>
+      <c r="R35" t="n">
+        <v>335</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.05429999999999999</v>
+      </c>
+      <c r="T35" t="n">
         <v>19</v>
       </c>
-      <c r="C35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>65</v>
-      </c>
-      <c r="F35" t="n">
-        <v>76</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5861836</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26514814</v>
-      </c>
-      <c r="I35" t="n">
-        <v>724392</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.72075</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.2345</v>
-      </c>
-      <c r="M35" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.7649</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.7232999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.372486333278462</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5529,13 +6501,13 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -5592,80 +6564,108 @@
         <v>0</v>
       </c>
       <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F36" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>4651571</v>
+        <v>47</v>
       </c>
       <c r="H36" t="n">
-        <v>8237403</v>
+        <v>-7</v>
       </c>
       <c r="I36" t="n">
-        <v>724392</v>
+        <v>44</v>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>-9</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2546</v>
+        <v>26347631</v>
       </c>
       <c r="L36" t="n">
-        <v>0.09300000000000001</v>
+        <v>26.3</v>
       </c>
       <c r="M36" t="n">
-        <v>6.3</v>
+        <v>54733739</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>67400000</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>122133739</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>122.1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>13.5704</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2.9222</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5674,16 +6674,16 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -5737,80 +6737,108 @@
         <v>1</v>
       </c>
       <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="D37" t="n">
+        <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G37" t="n">
-        <v>5319280</v>
+        <v>48</v>
       </c>
       <c r="H37" t="n">
-        <v>17000612</v>
+        <v>9</v>
       </c>
       <c r="I37" t="n">
-        <v>724392</v>
+        <v>53</v>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1.6764</v>
+        <v>13582231</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2128</v>
+        <v>13.6</v>
       </c>
       <c r="M37" t="n">
-        <v>5.2</v>
+        <v>68566296</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>131.7906666666667</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>118577563.8444445</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>68566296</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.078813333333334</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>6.856599999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.3582</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.377318755497027</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5819,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -5834,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -5855,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -5876,89 +6904,117 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
       <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43</v>
       </c>
       <c r="E38" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F38" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G38" t="n">
-        <v>11504710</v>
+        <v>76</v>
       </c>
       <c r="H38" t="n">
-        <v>29975167</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>724392</v>
+        <v>86</v>
       </c>
       <c r="J38" t="n">
-        <v>55</v>
+        <v>-43</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7936</v>
+        <v>8137584</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2092</v>
+        <v>8.1</v>
       </c>
       <c r="M38" t="n">
-        <v>7.3</v>
+        <v>26402818</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>7371145</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>33773963</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>73.18333333333334</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>0.62115</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5967,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -6006,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -6027,95 +7083,123 @@
         <v>0</v>
       </c>
       <c r="AU38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>96</v>
+      </c>
+      <c r="D39" t="n">
+        <v>78</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G39" t="n">
-        <v>251569</v>
+        <v>73</v>
       </c>
       <c r="H39" t="n">
-        <v>3689637</v>
+        <v>23</v>
       </c>
       <c r="I39" t="n">
-        <v>724392</v>
+        <v>85</v>
       </c>
       <c r="J39" t="n">
-        <v>59.85714285714285</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>1.72075</v>
+        <v>126707459</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2054</v>
+        <v>126.7</v>
       </c>
       <c r="M39" t="n">
-        <v>6.9</v>
+        <v>718732821</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>718.7</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>756.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>756440284</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1475173105</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1475.2</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.5128</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>8.6775</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.7453</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
@@ -6151,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
         <v>0</v>
@@ -6172,80 +7256,108 @@
         <v>0</v>
       </c>
       <c r="AU39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48</v>
       </c>
       <c r="E40" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F40" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G40" t="n">
-        <v>31625971</v>
+        <v>73</v>
       </c>
       <c r="H40" t="n">
-        <v>100916094</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>724392</v>
+        <v>78</v>
       </c>
       <c r="J40" t="n">
-        <v>155</v>
+        <v>-33</v>
       </c>
       <c r="K40" t="n">
-        <v>3.0196</v>
+        <v>47776293</v>
       </c>
       <c r="L40" t="n">
-        <v>0.204</v>
+        <v>47.8</v>
       </c>
       <c r="M40" t="n">
-        <v>6.3</v>
+        <v>110500138</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>275.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>275400000</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>385900138</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2.27</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.2812</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -6260,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -6269,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
@@ -6305,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -6317,86 +7429,114 @@
         <v>0</v>
       </c>
       <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="D41" t="n">
+        <v>83</v>
       </c>
       <c r="E41" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
-        <v>10101066</v>
+        <v>76</v>
       </c>
       <c r="H41" t="n">
-        <v>40501717</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>724392</v>
+        <v>78</v>
       </c>
       <c r="J41" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K41" t="n">
-        <v>3.355</v>
+        <v>10845330</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2245</v>
+        <v>10.8</v>
       </c>
       <c r="M41" t="n">
-        <v>6.2</v>
+        <v>32316575</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>9325905</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>41642480</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.7762</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>0.723</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>6.455806672530161</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -6408,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -6420,16 +7560,16 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
@@ -6447,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
@@ -6462,81 +7602,109 @@
         <v>0</v>
       </c>
       <c r="AU41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>53</v>
+      </c>
+      <c r="D42" t="n">
+        <v>52</v>
+      </c>
+      <c r="E42" t="n">
+        <v>53</v>
+      </c>
+      <c r="F42" t="n">
+        <v>79</v>
+      </c>
+      <c r="G42" t="n">
+        <v>28</v>
+      </c>
+      <c r="H42" t="n">
+        <v>51</v>
+      </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8351109</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>17199425</v>
+      </c>
+      <c r="N42" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>38400000</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>55599425</v>
+      </c>
+      <c r="R42" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="T42" t="n">
+        <v>48</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.1583</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="W42" t="n">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
-        <v>6</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>57</v>
-      </c>
-      <c r="F42" t="n">
-        <v>77</v>
-      </c>
-      <c r="G42" t="n">
-        <v>16627491</v>
-      </c>
-      <c r="H42" t="n">
-        <v>48947356</v>
-      </c>
-      <c r="I42" t="n">
-        <v>724392</v>
-      </c>
-      <c r="J42" t="n">
-        <v>64</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.2253</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.2598</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
@@ -6559,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
         <v>0</v>
@@ -6601,86 +7769,114 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
       </c>
       <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F43" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G43" t="n">
-        <v>1399373</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>3973263</v>
+        <v>38</v>
       </c>
       <c r="I43" t="n">
-        <v>102902556.5555556</v>
+        <v>69</v>
       </c>
       <c r="J43" t="n">
-        <v>63.61428571428571</v>
+        <v>-26</v>
       </c>
       <c r="K43" t="n">
-        <v>10.82652857142857</v>
+        <v>918112</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7729666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="M43" t="n">
-        <v>4.9</v>
+        <v>6306897</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>724392</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7031289</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.1172</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6689,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -6698,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -6725,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -6746,89 +7942,117 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
       </c>
       <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="D44" t="n">
+        <v>73</v>
       </c>
       <c r="E44" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F44" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G44" t="n">
-        <v>2919717</v>
+        <v>68</v>
       </c>
       <c r="H44" t="n">
-        <v>8286741</v>
+        <v>21</v>
       </c>
       <c r="I44" t="n">
-        <v>12959213</v>
+        <v>79</v>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3541</v>
+        <v>2250430</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0487</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="n">
-        <v>6.7</v>
+        <v>12668325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>2881115.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9459933.666666666</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.433333333333334</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.075</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.5647</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.0605</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6852,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -6870,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" t="n">
         <v>0</v>
@@ -6891,86 +8115,114 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
       <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>82</v>
+      </c>
+      <c r="D45" t="n">
+        <v>57</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" t="n">
+        <v>79</v>
+      </c>
+      <c r="G45" t="n">
+        <v>70</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>75</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14504315</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>66220028</v>
+      </c>
+      <c r="N45" t="n">
+        <v>66</v>
+      </c>
+      <c r="O45" t="n">
+        <v>10</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9724832</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>75944860</v>
+      </c>
+      <c r="R45" t="n">
+        <v>759</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="T45" t="n">
         <v>48</v>
       </c>
-      <c r="C45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>57</v>
-      </c>
-      <c r="F45" t="n">
-        <v>69</v>
-      </c>
-      <c r="G45" t="n">
-        <v>12891123</v>
-      </c>
-      <c r="H45" t="n">
-        <v>45630104</v>
-      </c>
-      <c r="I45" t="n">
-        <v>84668080</v>
-      </c>
-      <c r="J45" t="n">
-        <v>90</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.4478</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1432</v>
-      </c>
-      <c r="M45" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.5822</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.3022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>6.486193784032172</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7006,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
         <v>0</v>
@@ -7015,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
@@ -7036,89 +8288,117 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>88</v>
       </c>
       <c r="E46" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F46" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
-        <v>1755325</v>
+        <v>82</v>
       </c>
       <c r="H46" t="n">
-        <v>4330720</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>102933</v>
+        <v>85</v>
       </c>
       <c r="J46" t="n">
-        <v>63.61428571428571</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>10.82652857142857</v>
+        <v>11001961</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7729666666666667</v>
+        <v>11</v>
       </c>
       <c r="M46" t="n">
-        <v>6.8</v>
+        <v>40442052</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>186435244</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>226877296</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.8217</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>5.671900000000001</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>6.465273369634317</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -7130,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -7151,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
@@ -7172,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -7181,86 +8461,114 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
       </c>
       <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="D47" t="n">
+        <v>76</v>
       </c>
       <c r="E47" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F47" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
-        <v>16000495</v>
+        <v>79</v>
       </c>
       <c r="H47" t="n">
-        <v>44141550</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
-        <v>48559860</v>
+        <v>85</v>
       </c>
       <c r="J47" t="n">
-        <v>40</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="K47" t="n">
-        <v>2.3175</v>
+        <v>338999</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M47" t="n">
-        <v>7.4</v>
+        <v>4153783</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>136.0833777777778</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>25419</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>4179202</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>0.8302538461538462</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>6.442958260943271</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -7269,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -7290,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -7311,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
@@ -7326,104 +8634,132 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
       </c>
       <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
       </c>
       <c r="E48" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G48" t="n">
-        <v>6444896</v>
+        <v>56</v>
       </c>
       <c r="H48" t="n">
-        <v>14947969</v>
+        <v>-18</v>
       </c>
       <c r="I48" t="n">
-        <v>14452857</v>
+        <v>47</v>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>-11</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3675</v>
+        <v>53807379</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0806</v>
+        <v>53.8</v>
       </c>
       <c r="M48" t="n">
-        <v>6.1</v>
+        <v>117450119</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>248100000</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>365550119</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>3656</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.6787000000000001</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>16.6159</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2.4458</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>6.41915547833949</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -7441,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
@@ -7471,86 +8807,114 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="D49" t="n">
+        <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F49" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G49" t="n">
-        <v>805000</v>
+        <v>55</v>
       </c>
       <c r="H49" t="n">
-        <v>10640105</v>
+        <v>27</v>
       </c>
       <c r="I49" t="n">
-        <v>4739790</v>
+        <v>69</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3</v>
+        <v>-12</v>
       </c>
       <c r="K49" t="n">
-        <v>61.5196</v>
+        <v>12891123</v>
       </c>
       <c r="L49" t="n">
-        <v>3.22</v>
+        <v>12.9</v>
       </c>
       <c r="M49" t="n">
-        <v>6.1</v>
+        <v>45630104</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>84.7</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>84668080</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>130298184</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>130.3</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.6498</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.4478</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>0.1432</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -7565,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -7598,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
@@ -7616,89 +8980,117 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="D50" t="n">
+        <v>78</v>
       </c>
       <c r="E50" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G50" t="n">
-        <v>126707459</v>
+        <v>78</v>
       </c>
       <c r="H50" t="n">
-        <v>718732821</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
-        <v>756440284</v>
+        <v>84</v>
       </c>
       <c r="J50" t="n">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>8.6775</v>
+        <v>357115007</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7453</v>
+        <v>357.1</v>
       </c>
       <c r="M50" t="n">
-        <v>8.300000000000001</v>
+        <v>858373000</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>858.4</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1939.4</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>1939427564</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>2797800564</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>2797.8</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>7.859</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.0031</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -7707,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
         <v>0</v>
@@ -7719,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="n">
         <v>0</v>
@@ -7761,86 +9153,114 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>original screenplay</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="D51" t="n">
+        <v>71</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G51" t="n">
-        <v>21115423.5</v>
+        <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>2033057</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>3475600</v>
+        <v>86</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="K51" t="n">
-        <v>1.1017</v>
+        <v>53505326</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7729666666666667</v>
+        <v>53.5</v>
       </c>
       <c r="M51" t="n">
-        <v>2.5</v>
+        <v>56830326</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>56.8</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>102.3</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>102300000</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>159130326</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>159.1</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.5913</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>0.535</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X51" t="n">
         <v>1</v>
@@ -7864,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="n">
         <v>0</v>
@@ -7876,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
@@ -7885,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -7897,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -7906,12 +9326,42 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
         <v>0</v>
       </c>
     </row>
